--- a/Datasets/Helio_Sentiment_Analysis_Matrix_Detail.xlsx
+++ b/Datasets/Helio_Sentiment_Analysis_Matrix_Detail.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10908"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jojoel/Google Drive/Github/sentiment-analysis/Datasets/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51476282-3C9F-2142-AF73-BB71E43170D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5955" yWindow="-120" windowWidth="10200" windowHeight="7485"/>
+    <workbookView xWindow="3880" yWindow="460" windowWidth="21540" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -648,7 +654,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1008,6 +1014,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1055,7 +1064,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1088,9 +1097,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1123,6 +1149,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1298,23 +1341,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" style="3" customWidth="1"/>
-    <col min="2" max="2" width="29.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="62.85546875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="29.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="62.83203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>134</v>
       </c>
@@ -1323,7 +1366,7 @@
       <c r="D1" s="18"/>
       <c r="E1" s="18"/>
     </row>
-    <row r="2" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>145</v>
       </c>
@@ -1332,7 +1375,7 @@
       <c r="D2" s="15"/>
       <c r="E2" s="16"/>
     </row>
-    <row r="3" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>135</v>
       </c>
@@ -1341,14 +1384,14 @@
       <c r="D3" s="18"/>
       <c r="E3" s="18"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="10"/>
       <c r="B4" s="8"/>
       <c r="C4" s="9"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>57</v>
       </c>
@@ -1365,7 +1408,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
         <v>122</v>
       </c>
@@ -1374,7 +1417,7 @@
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
     </row>
-    <row r="7" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>59</v>
       </c>
@@ -1391,7 +1434,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>60</v>
       </c>
@@ -1408,7 +1451,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>61</v>
       </c>
@@ -1425,7 +1468,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>62</v>
       </c>
@@ -1442,7 +1485,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>63</v>
       </c>
@@ -1459,7 +1502,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="19" t="s">
         <v>123</v>
       </c>
@@ -1468,7 +1511,7 @@
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
     </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>64</v>
       </c>
@@ -1485,7 +1528,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>65</v>
       </c>
@@ -1502,7 +1545,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="19" t="s">
         <v>124</v>
       </c>
@@ -1511,7 +1554,7 @@
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
     </row>
-    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>66</v>
       </c>
@@ -1528,7 +1571,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>72</v>
       </c>
@@ -1545,7 +1588,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>73</v>
       </c>
@@ -1562,7 +1605,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>74</v>
       </c>
@@ -1579,7 +1622,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>75</v>
       </c>
@@ -1596,7 +1639,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>76</v>
       </c>
@@ -1613,7 +1656,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>77</v>
       </c>
@@ -1630,7 +1673,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>78</v>
       </c>
@@ -1647,7 +1690,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>79</v>
       </c>
@@ -1664,7 +1707,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>80</v>
       </c>
@@ -1681,7 +1724,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>81</v>
       </c>
@@ -1698,7 +1741,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>82</v>
       </c>
@@ -1715,7 +1758,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>83</v>
       </c>
@@ -1732,7 +1775,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>84</v>
       </c>
@@ -1749,7 +1792,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>85</v>
       </c>
@@ -1766,7 +1809,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="19" t="s">
         <v>125</v>
       </c>
@@ -1775,7 +1818,7 @@
       <c r="D31" s="20"/>
       <c r="E31" s="20"/>
     </row>
-    <row r="32" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>86</v>
       </c>
@@ -1792,7 +1835,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>87</v>
       </c>
@@ -1809,7 +1852,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>88</v>
       </c>
@@ -1826,7 +1869,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>89</v>
       </c>
@@ -1843,7 +1886,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>90</v>
       </c>
@@ -1860,7 +1903,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>91</v>
       </c>
@@ -1877,7 +1920,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>92</v>
       </c>
@@ -1894,7 +1937,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>93</v>
       </c>
@@ -1911,7 +1954,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>94</v>
       </c>
@@ -1928,7 +1971,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>95</v>
       </c>
@@ -1945,7 +1988,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>96</v>
       </c>
@@ -1962,7 +2005,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>97</v>
       </c>
@@ -1979,7 +2022,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>98</v>
       </c>
@@ -1996,7 +2039,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>99</v>
       </c>
@@ -2013,7 +2056,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>100</v>
       </c>
@@ -2030,7 +2073,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="19" t="s">
         <v>126</v>
       </c>
@@ -2039,7 +2082,7 @@
       <c r="D47" s="20"/>
       <c r="E47" s="20"/>
     </row>
-    <row r="48" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>101</v>
       </c>
@@ -2056,7 +2099,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>102</v>
       </c>
@@ -2073,7 +2116,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>103</v>
       </c>
@@ -2090,7 +2133,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>104</v>
       </c>
@@ -2107,7 +2150,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>105</v>
       </c>
@@ -2124,7 +2167,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>106</v>
       </c>
@@ -2141,7 +2184,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>107</v>
       </c>
@@ -2158,7 +2201,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>108</v>
       </c>
@@ -2175,7 +2218,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>109</v>
       </c>
@@ -2192,7 +2235,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>110</v>
       </c>
@@ -2209,7 +2252,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>111</v>
       </c>
@@ -2226,7 +2269,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>112</v>
       </c>
@@ -2243,7 +2286,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>113</v>
       </c>
@@ -2260,7 +2303,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>114</v>
       </c>
@@ -2277,7 +2320,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>115</v>
       </c>
@@ -2294,7 +2337,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="19" t="s">
         <v>127</v>
       </c>
@@ -2303,7 +2346,7 @@
       <c r="D63" s="20"/>
       <c r="E63" s="20"/>
     </row>
-    <row r="64" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>116</v>
       </c>
@@ -2320,7 +2363,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>117</v>
       </c>
@@ -2337,7 +2380,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>118</v>
       </c>
@@ -2354,7 +2397,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>119</v>
       </c>
@@ -2371,7 +2414,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>120</v>
       </c>
@@ -2388,7 +2431,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>121</v>
       </c>
@@ -2405,14 +2448,14 @@
         <v>70</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6"/>
       <c r="B70" s="6"/>
       <c r="C70" s="7"/>
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
     </row>
-    <row r="71" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
         <v>138</v>
       </c>
@@ -2421,7 +2464,7 @@
       <c r="D71" s="12"/>
       <c r="E71" s="13"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="9"/>
